--- a/biology/Zoologie/Adelpha_aricia/Adelpha_aricia.xlsx
+++ b/biology/Zoologie/Adelpha_aricia/Adelpha_aricia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha aricia  est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre Adelpha.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Adelpha aricia a été décrit par William Chapman Hewitson en 1867 sous le nom Heterochroa aricia[1].
-Sous-espèces
-Adelpha aricia aricia;  présent en Bolivie.
-Adelpha aricia portunus Hall, 1938; dans le nord du Pérou
-Adelpha aricia serenita Fruhstorfer, 1915; présent au Pérou
-Adelpha aricia ssp; au Pérou[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha aricia a été décrit par William Chapman Hewitson en 1867 sous le nom Heterochroa aricia.
+</t>
         </is>
       </c>
     </row>
@@ -543,14 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelpha  aricia est un papillon au bord externe des ailes antérieures légèrement concave au dessus marron marqué d'une bande blanche dans l'aire discale des ailes antérieures et postérieures formant un grand V avec aux ailes antérieures une ligne submarginale couleur jaune allant du bord costal à la moitié de l'aile.
-Le revers est beige nacré taché de beige rosé avec la même bande blanche que sur le dessus.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adelpha aricia aricia;  présent en Bolivie.
+Adelpha aricia portunus Hall, 1938; dans le nord du Pérou
+Adelpha aricia serenita Fruhstorfer, 1915; présent au Pérou
+Adelpha aricia ssp; au Pérou.</t>
         </is>
       </c>
     </row>
@@ -575,12 +592,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha  aricia est un papillon au bord externe des ailes antérieures légèrement concave au dessus marron marqué d'une bande blanche dans l'aire discale des ailes antérieures et postérieures formant un grand V avec aux ailes antérieures une ligne submarginale couleur jaune allant du bord costal à la moitié de l'aile.
+Le revers est beige nacré taché de beige rosé avec la même bande blanche que sur le dessus.
+</t>
         </is>
       </c>
     </row>
@@ -608,12 +629,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha aricia est présent en Bolivie et au Pérou[1]. 
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha aricia est présent en Bolivie et au Pérou. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_aricia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_aricia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
